--- a/barb_progress.xlsx
+++ b/barb_progress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="0" windowWidth="18120" windowHeight="10100" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="340" yWindow="3980" windowWidth="18120" windowHeight="10100" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Assign 1" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="62">
   <si>
     <t>SVM</t>
   </si>
@@ -177,13 +177,43 @@
   </si>
   <si>
     <t>Original 2</t>
+  </si>
+  <si>
+    <t>3rd Attempt</t>
+  </si>
+  <si>
+    <t>MLAssignment2_3</t>
+  </si>
+  <si>
+    <t>4th Attempt</t>
+  </si>
+  <si>
+    <t>MLAssignment2_4</t>
+  </si>
+  <si>
+    <t>5th Attempt</t>
+  </si>
+  <si>
+    <t>MLAssignment2_5</t>
+  </si>
+  <si>
+    <t>Variance Test</t>
+  </si>
+  <si>
+    <t>Ridge W Normalization</t>
+  </si>
+  <si>
+    <t>6th Attempt</t>
+  </si>
+  <si>
+    <t>MLAssignment2_6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -215,6 +245,11 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -239,7 +274,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -335,8 +370,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -349,8 +410,9 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="121">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -412,6 +474,19 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
@@ -445,6 +520,19 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2273,26 +2361,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="1" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="5" width="22.1640625" customWidth="1"/>
-    <col min="6" max="6" width="43.5" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:29" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>37</v>
@@ -2307,12 +2395,14 @@
         <v>45</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
+      <c r="J1" s="5"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -2331,8 +2421,9 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="6"/>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2348,11 +2439,11 @@
       <c r="E2" s="2">
         <v>0.74</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:29">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2369,7 +2460,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2386,7 +2477,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:29">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2402,12 +2493,12 @@
       <c r="E5" s="2">
         <v>0.66</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="4" customFormat="1"/>
-    <row r="7" spans="1:28">
+    <row r="6" spans="1:29" s="4" customFormat="1"/>
+    <row r="7" spans="1:29">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -2423,11 +2514,11 @@
       <c r="E7" s="2">
         <v>0.74</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:29">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -2444,7 +2535,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:29">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
@@ -2461,8 +2552,8 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="4" customFormat="1"/>
-    <row r="11" spans="1:28">
+    <row r="10" spans="1:29" s="4" customFormat="1"/>
+    <row r="11" spans="1:29">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -2478,11 +2569,11 @@
       <c r="E11" s="2">
         <v>0.77</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:29">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -2499,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:29">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -2516,8 +2607,289 @@
         <v>0.77</v>
       </c>
     </row>
+    <row r="14" spans="1:29" s="4" customFormat="1"/>
+    <row r="15" spans="1:29">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2">
+        <v>108925616.66</v>
+      </c>
+      <c r="D15" s="2">
+        <v>128956969.03</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5434331.4800000004</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6.5616945981408297E+18</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2">
+        <v>109841427.33</v>
+      </c>
+      <c r="D17" s="2">
+        <v>127527064.17</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2">
+        <v>111758193.11</v>
+      </c>
+      <c r="D19" s="2">
+        <v>131153799.56</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8602620.0099999998</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3.1001389732975398E+20</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2">
+        <v>112718666.73999999</v>
+      </c>
+      <c r="D21" s="2">
+        <v>129815945.17</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2">
+        <v>81656322.069999993</v>
+      </c>
+      <c r="D23" s="2">
+        <v>95114115.569999993</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1091516632311.28</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-3697.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2">
+        <v>82254041.25</v>
+      </c>
+      <c r="D25" s="2">
+        <v>94148204.689999998</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2">
+        <v>108125051.68000001</v>
+      </c>
+      <c r="D26" s="2">
+        <v>101865712.31999999</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="2">
+        <v>108925616.66</v>
+      </c>
+      <c r="D28" s="2">
+        <v>128956969.03</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5434331.4800000004</v>
+      </c>
+      <c r="D29" s="2">
+        <v>6.5616945981408297E+18</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-22236169086.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2">
+        <v>109841427.33</v>
+      </c>
+      <c r="D30" s="2">
+        <v>127527064.17</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="2">
+        <v>147086123.46000001</v>
+      </c>
+      <c r="D31" s="2">
+        <v>128811609.83</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" ht="16">
+      <c r="C36" s="8"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:I1">
+  <conditionalFormatting sqref="I1:J1">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/barb_progress.xlsx
+++ b/barb_progress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="3980" windowWidth="18120" windowHeight="10100" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="220" yWindow="0" windowWidth="21160" windowHeight="14740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Assign 1" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="64">
   <si>
     <t>SVM</t>
   </si>
@@ -207,13 +207,19 @@
   </si>
   <si>
     <t>MLAssignment2_6</t>
+  </si>
+  <si>
+    <t>7th Attempt</t>
+  </si>
+  <si>
+    <t>MLAssignment2_7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -245,11 +251,6 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -274,7 +275,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -396,8 +397,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -410,9 +423,8 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="133">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -487,6 +499,12 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
@@ -533,6 +551,12 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2364,10 +2388,10 @@
   <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2885,8 +2909,89 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="36" spans="3:3" ht="16">
-      <c r="C36" s="8"/>
+    <row r="32" spans="1:7" s="4" customFormat="1"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="2">
+        <v>173.34</v>
+      </c>
+      <c r="D33" s="2">
+        <v>308.56</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2">
+        <v>176.6</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.7201169340152001E+29</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="F34" s="2">
+        <v>-5.3799129354879897E+26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="2">
+        <v>173.14</v>
+      </c>
+      <c r="D35" s="2">
+        <v>307.73</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="2">
+        <v>176.14</v>
+      </c>
+      <c r="D36" s="2">
+        <v>305.39999999999998</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.04</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:J1">

--- a/barb_progress.xlsx
+++ b/barb_progress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="0" windowWidth="21160" windowHeight="14740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1720" yWindow="0" windowWidth="21160" windowHeight="14740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Assign 1" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="66">
   <si>
     <t>SVM</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>MLAssignment2_7</t>
+  </si>
+  <si>
+    <t>8th Attempt</t>
+  </si>
+  <si>
+    <t>MLAssignment2_8</t>
   </si>
 </sst>
 </file>
@@ -275,7 +281,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="133">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -304,6 +310,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -424,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="133">
+  <cellStyles count="137">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -505,6 +515,8 @@
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
@@ -557,6 +569,8 @@
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -890,7 +904,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A4"/>
+      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2385,13 +2399,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2991,6 +3005,82 @@
       </c>
       <c r="F36" s="2">
         <v>0.04</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1"/>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2">
+        <v>57319450.729999997</v>
+      </c>
+      <c r="D38" s="2">
+        <v>81629775.769999996</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="2">
+        <v>58311575.32</v>
+      </c>
+      <c r="D40" s="2">
+        <v>80243320.760000005</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="2">
+        <v>74602382.700000003</v>
+      </c>
+      <c r="D41" s="2">
+        <v>87764855.879999995</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>

--- a/barb_progress.xlsx
+++ b/barb_progress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="0" windowWidth="21160" windowHeight="14740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2660" yWindow="0" windowWidth="21160" windowHeight="14740" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Assign 1" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="68">
   <si>
     <t>SVM</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>MLAssignment2_8</t>
+  </si>
+  <si>
+    <t>N Clusters</t>
+  </si>
+  <si>
+    <t>Min Reviews</t>
   </si>
 </sst>
 </file>
@@ -281,7 +287,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -419,8 +425,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -433,8 +441,9 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="139">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -517,6 +526,7 @@
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
@@ -571,6 +581,7 @@
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2401,7 +2412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
@@ -3108,13 +3119,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
